--- a/合肥避坑.xlsx
+++ b/合肥避坑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangheli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA01975-500B-4A2F-8DB9-7862B97D4E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A9BCAF-8276-3B43-AE7F-4B065F21EB31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A9834A-96FA-4FD5-B314-190ADD14F003}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{25A9834A-96FA-4FD5-B314-190ADD14F003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
   <si>
     <t>合肥公司避坑</t>
   </si>
@@ -590,13 +588,30 @@
   </si>
   <si>
     <t>辣鸡公司，入职不买社保，公积金一年之后才给买，试用期每个月都压两千块钱工资，一年之后才发，如果不到一年离职这钱是不发的，老板几乎每天有事没事把员工喊去办公室训话，动不动就骂人那种，员工在他眼里就是辣鸡，在他看来自己永远是对的，从不接受员工的想法，过年过节啥福利都没有。</t>
+  </si>
+  <si>
+    <t>安徽丰龙信息科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰龙科技</t>
+  </si>
+  <si>
+    <t>1、五险一金最低标准
+2、管理混乱，UI都能当设计
+3、一周强制加班3天，调休具困难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板喜欢PUA，不加班就说不合群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,21 +987,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4079C3-A11B-44EB-993D-A6C1C02FF93E}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1011,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="48">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="192">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1036,7 +1051,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="32">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1061,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="32">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="32">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1085,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="335">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1095,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="32">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1105,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="32">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1115,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1123,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="80">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1133,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="112">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1143,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="48">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1140,7 +1155,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1163,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="128">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1158,7 +1173,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="112">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="32">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1197,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="64">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1194,7 +1209,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="96">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1204,7 +1219,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="64">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="64">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1243,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="48">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1253,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="80">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1248,7 +1263,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="192">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +1275,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="112">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1272,7 +1287,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="96">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -1282,7 +1297,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="64">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -1294,7 +1309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="96">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="80">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1333,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="144">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="144">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -1342,7 +1357,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="32">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -1352,7 +1367,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -1376,7 +1391,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="48">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -1386,7 +1401,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="96">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="48">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -1410,7 +1425,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="409.6">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -1420,7 +1435,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="16">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
@@ -1428,7 +1443,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="112">
       <c r="A41" s="1" t="s">
         <v>96</v>
       </c>
@@ -1438,7 +1453,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="64">
       <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
@@ -1448,7 +1463,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="256">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -1460,7 +1475,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="112">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
@@ -1472,7 +1487,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="144">
       <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="48">
       <c r="A46" s="2" t="s">
         <v>109</v>
       </c>
@@ -1496,7 +1511,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="16">
       <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
@@ -1504,7 +1519,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -1512,7 +1527,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="16">
       <c r="A49" s="1" t="s">
         <v>114</v>
       </c>
@@ -1520,7 +1535,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="48">
       <c r="A50" s="1" t="s">
         <v>115</v>
       </c>
@@ -1530,7 +1545,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="80">
       <c r="A51" s="1" t="s">
         <v>117</v>
       </c>
@@ -1542,7 +1557,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="16">
       <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
@@ -1552,7 +1567,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="16">
       <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
@@ -1560,7 +1575,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="409.6">
       <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
@@ -1572,7 +1587,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="48">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
@@ -1582,7 +1597,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="16">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
@@ -1590,7 +1605,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="144">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -1600,7 +1615,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="16">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -1608,7 +1623,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="16">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -1616,7 +1631,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="112">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -1626,7 +1641,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="112">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
@@ -1636,7 +1651,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="32">
       <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
@@ -1648,7 +1663,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="48">
       <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
@@ -1660,7 +1675,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="64">
       <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
@@ -1672,7 +1687,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="144">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -1682,7 +1697,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="16">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -1690,7 +1705,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="16">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -1698,7 +1713,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="16">
       <c r="A68" s="2" t="s">
         <v>149</v>
       </c>
@@ -1706,7 +1721,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="32">
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
@@ -1716,7 +1731,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="16">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -1724,7 +1739,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="64">
       <c r="A71" s="2" t="s">
         <v>153</v>
       </c>
@@ -1736,7 +1751,7 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="16">
       <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
@@ -1744,7 +1759,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="16">
       <c r="A73" s="1" t="s">
         <v>157</v>
       </c>
@@ -1752,7 +1767,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="16">
       <c r="A74" s="1" t="s">
         <v>158</v>
       </c>
@@ -1760,7 +1775,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="128">
       <c r="A75" s="1" t="s">
         <v>159</v>
       </c>
@@ -1770,7 +1785,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="304">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -1782,7 +1797,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="96">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -1792,7 +1807,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="16">
       <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
@@ -1800,7 +1815,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="16">
       <c r="A79" s="1" t="s">
         <v>167</v>
       </c>
@@ -1808,7 +1823,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="144">
       <c r="A80" s="1" t="s">
         <v>168</v>
       </c>
@@ -1818,7 +1833,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="64">
       <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
@@ -1830,7 +1845,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="112">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -1840,7 +1855,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="112">
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
@@ -1852,7 +1867,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="128">
       <c r="A84" s="1" t="s">
         <v>178</v>
       </c>
@@ -1864,7 +1879,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="48">
       <c r="A85" s="1" t="s">
         <v>181</v>
       </c>
@@ -1876,7 +1891,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="224">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
@@ -1885,6 +1900,20 @@
         <v>185</v>
       </c>
       <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="84" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
